--- a/AlgorithmComparison.xlsx
+++ b/AlgorithmComparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CollegeFall2017\OperatingSystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CollegeFall2017\OperatingSystems\cpuSchedulerV2\MLFQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>P1</t>
   </si>
@@ -74,6 +75,15 @@
   <si>
     <t xml:space="preserve">    Multi-Level Feedback Queue (MLFQ)</t>
   </si>
+  <si>
+    <t>First Come First Served (FCFS)</t>
+  </si>
+  <si>
+    <t>Shortest Job First (SJF)</t>
+  </si>
+  <si>
+    <t>Multi-Level Feedback Queue (MLFQ)</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -202,11 +212,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,7 +299,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -248,6 +332,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,6 +372,4568 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Real Value</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Comparisons</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.96237340000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>0.89232800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>0.86883109999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-30C9-447F-897F-47919895986A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="619593912"/>
+        <c:axId val="619594240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619593912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619594240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619594240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619593912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Value Comparisons</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$39:$M$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>WT</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>RT</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>CPU (%)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>         First-Come-First-Served (FCFS)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>                Shortest Job First (SJF)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>    Multi-Level Feedback Queue (MLFQ)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>536.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.96240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.75</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>0.89229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>518.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>0.86880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E342-4BF1-9B67-13EEC329BA0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="653903528"/>
+        <c:axId val="653901888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="653903528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653901888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="653901888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653903528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>First Come First Served (FCFS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shortest Job First (SJF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Multi-Level Feedback Queue (MLFQ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F167-4C7F-B6BB-71784BCC0AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="620531288"/>
+        <c:axId val="620530304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620531288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620530304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620530304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620531288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>First Come First Served (FCFS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shortest Job First (SJF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Multi-Level Feedback Queue (MLFQ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B69D-493D-9A12-48CFDD8A11AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="620531288"/>
+        <c:axId val="620530304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620531288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620530304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620530304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620531288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0397C84C-267B-47CB-83D0-FA84E7AF1510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8B9263-F378-499A-8402-D4A3E3FBA5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ED345B-A639-43F6-84A6-FC628FA8A53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75396220-7600-4C2F-B102-2AD46A9C6D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97874E7B-11A8-4A6E-BE88-F2909792AEC6}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" activeCellId="22" sqref="B1:M2 A3 A4 A5 A6 A7 A9 A8 A10 A11 B11 C11 D11 E7 E6 F11 G11 H11 I6 J11 K11 L11 M6"/>
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +5245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -584,7 +5256,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="4"/>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -594,373 +5266,524 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="23">
         <v>493</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="23">
         <v>534</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="23">
         <v>0</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="17">
+      <c r="E3" s="6"/>
+      <c r="F3" s="16">
         <v>43</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>288</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="1">
+      <c r="I3" s="6"/>
+      <c r="J3" s="23">
         <v>313</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="23">
         <v>354</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="23">
         <v>0</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="23">
         <v>541</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="23">
         <v>633</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="23">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="17">
+      <c r="E4" s="6"/>
+      <c r="F4" s="16">
         <v>105</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>424</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>24</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="1">
+      <c r="I4" s="6"/>
+      <c r="J4" s="23">
         <v>579</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="23">
         <v>671</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="23">
         <v>4</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="23">
         <v>442</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="23">
         <v>552</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="23">
         <v>13</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="17">
+      <c r="E5" s="6"/>
+      <c r="F5" s="16">
         <v>373</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>665</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>343</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="1">
+      <c r="I5" s="6"/>
+      <c r="J5" s="23">
         <v>454</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="23">
         <v>564</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="23">
         <v>10</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="23">
         <v>561</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="23">
         <v>682</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="23">
         <v>37</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.96237340000000005</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>178</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>647</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>37</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>0.89232800000000001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="23">
         <v>648</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="23">
         <v>769</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="23">
         <v>16</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>0.86883109999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="23">
         <v>566</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="23">
         <v>626</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="23">
         <v>52</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="17">
+      <c r="E7" s="6"/>
+      <c r="F7" s="16">
         <v>122</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>385</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>13</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="1">
+      <c r="I7" s="6"/>
+      <c r="J7" s="23">
         <v>317</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="23">
         <v>377</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="23">
         <v>22</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="23">
         <v>478</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="23">
         <v>612</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="23">
         <v>58</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17">
+      <c r="E8" s="6"/>
+      <c r="F8" s="16">
         <v>395</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>743</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>225</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="1">
+      <c r="I8" s="6"/>
+      <c r="J8" s="23">
         <v>508</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="23">
         <v>642</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="23">
         <v>28</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="23">
         <v>632</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="23">
         <v>691</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="23">
         <v>80</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="17">
+      <c r="E9" s="6"/>
+      <c r="F9" s="16">
         <v>98</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>466</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>4</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="1">
+      <c r="I9" s="6"/>
+      <c r="J9" s="23">
         <v>444</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="23">
         <v>503</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="23">
         <v>34</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="23">
         <v>577</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="23">
         <v>623</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="23">
         <v>84</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17">
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
         <v>85</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>318</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>8</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1">
+      <c r="I10" s="7"/>
+      <c r="J10" s="23">
         <v>225</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="23">
         <v>271</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="23">
         <v>38</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <f>AVERAGE(B3:B10)</f>
         <v>536.25</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>AVERAGE(C3:C10)</f>
         <v>619.125</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>AVERAGE(D3:D10)</f>
         <v>41</v>
       </c>
-      <c r="F11" s="13">
+      <c r="E11" s="24"/>
+      <c r="F11" s="12">
         <f>AVERAGE(F3:F10)</f>
         <v>174.875</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f>AVERAGE(G3:G10)</f>
         <v>492</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f>AVERAGE(H3:H10)</f>
         <v>81.75</v>
       </c>
-      <c r="J11" s="13">
+      <c r="I11" s="24"/>
+      <c r="J11" s="12">
         <f>AVERAGE(J3:J10)</f>
         <v>436</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f>AVERAGE(K3:K10)</f>
         <v>518.875</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f>AVERAGE(L3:L10)</f>
         <v>19</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27">
+        <v>536.25</v>
+      </c>
+      <c r="C41" s="28">
+        <v>619.125</v>
+      </c>
+      <c r="D41" s="28">
+        <v>41</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F41" s="28">
+        <v>174.875</v>
+      </c>
+      <c r="G41" s="28">
+        <v>492</v>
+      </c>
+      <c r="H41" s="28">
+        <v>81.75</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="J41" s="28">
+        <v>436</v>
+      </c>
+      <c r="K41" s="28">
+        <v>518.875</v>
+      </c>
+      <c r="L41" s="28">
+        <v>19</v>
+      </c>
+      <c r="M41" s="30">
+        <v>0.86880000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="26"/>
+    </row>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31103AFA-0577-4455-90A8-08505F0BDCCC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.86880000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>